--- a/data/pca/factorExposure/factorExposure_2013-07-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-07-08.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.002130552084164951</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001399854123094686</v>
+      </c>
+      <c r="C2">
+        <v>0.0322091992726834</v>
+      </c>
+      <c r="D2">
+        <v>-0.004637643183929179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.002826274012472384</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006066394630755315</v>
+      </c>
+      <c r="C4">
+        <v>0.08298226186100835</v>
+      </c>
+      <c r="D4">
+        <v>-0.08035014113490418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0003957641765024569</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01346800367427609</v>
+      </c>
+      <c r="C6">
+        <v>0.1054930208221685</v>
+      </c>
+      <c r="D6">
+        <v>-0.04111764277989285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.0013305117887799</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004880239659532651</v>
+      </c>
+      <c r="C7">
+        <v>0.05157336244977652</v>
+      </c>
+      <c r="D7">
+        <v>-0.03940910984118897</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.002814109579756427</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.006112843827917428</v>
+      </c>
+      <c r="C8">
+        <v>0.03822239542419088</v>
+      </c>
+      <c r="D8">
+        <v>-0.04009546981241965</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.005859400616085467</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.00405053864082687</v>
+      </c>
+      <c r="C9">
+        <v>0.06710564577027678</v>
+      </c>
+      <c r="D9">
+        <v>-0.07044869033129318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.004625170047841308</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.006248834741334325</v>
+      </c>
+      <c r="C10">
+        <v>0.089569774848059</v>
+      </c>
+      <c r="D10">
+        <v>0.2173145093867711</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.005967625607360033</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005007951069865078</v>
+      </c>
+      <c r="C11">
+        <v>0.07828890577176491</v>
+      </c>
+      <c r="D11">
+        <v>-0.06490272015891478</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.001014320921280947</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003831656083826566</v>
+      </c>
+      <c r="C12">
+        <v>0.06226778351600828</v>
+      </c>
+      <c r="D12">
+        <v>-0.04661496060205983</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.002658645811199969</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008380242663925388</v>
+      </c>
+      <c r="C13">
+        <v>0.0681617364500809</v>
+      </c>
+      <c r="D13">
+        <v>-0.07831936835854031</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.003904284612296299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001955209467950561</v>
+      </c>
+      <c r="C14">
+        <v>0.04740303803039686</v>
+      </c>
+      <c r="D14">
+        <v>-0.01597426252974905</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.003246061053831046</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005949831310216389</v>
+      </c>
+      <c r="C15">
+        <v>0.03745092194211168</v>
+      </c>
+      <c r="D15">
+        <v>-0.04614609709474908</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.003667275626610011</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005071276518820966</v>
+      </c>
+      <c r="C16">
+        <v>0.06373747950913208</v>
+      </c>
+      <c r="D16">
+        <v>-0.05035353461234941</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.001432390847781401</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.009252284478507334</v>
+      </c>
+      <c r="C20">
+        <v>0.06482301916519094</v>
+      </c>
+      <c r="D20">
+        <v>-0.05712828086622491</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.003146182789316286</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009552555936023149</v>
+      </c>
+      <c r="C21">
+        <v>0.02566043845513555</v>
+      </c>
+      <c r="D21">
+        <v>-0.0376220261921649</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01658524651191701</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.007573698063491011</v>
+      </c>
+      <c r="C22">
+        <v>0.08574325790648406</v>
+      </c>
+      <c r="D22">
+        <v>-0.1061690370439029</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01685154180226753</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.007327711168880601</v>
+      </c>
+      <c r="C23">
+        <v>0.08836121183433644</v>
+      </c>
+      <c r="D23">
+        <v>-0.103433076804074</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.004564954002051913</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004590829852011132</v>
+      </c>
+      <c r="C24">
+        <v>0.07149761917658277</v>
+      </c>
+      <c r="D24">
+        <v>-0.05933263713049396</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.005663043846335475</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002940982260042504</v>
+      </c>
+      <c r="C25">
+        <v>0.07630322390935924</v>
+      </c>
+      <c r="D25">
+        <v>-0.06320984036848781</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.007070400981312268</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003705055985839488</v>
+      </c>
+      <c r="C26">
+        <v>0.04352458336745508</v>
+      </c>
+      <c r="D26">
+        <v>-0.01866193491689457</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.005492597325381386</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.0005635526842260206</v>
+      </c>
+      <c r="C28">
+        <v>0.1394343875222174</v>
+      </c>
+      <c r="D28">
+        <v>0.3000531563004915</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001664334853025143</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003517548433832945</v>
+      </c>
+      <c r="C29">
+        <v>0.05046897526058514</v>
+      </c>
+      <c r="D29">
+        <v>-0.02205165329656484</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.005690294884664184</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009242450689741829</v>
+      </c>
+      <c r="C30">
+        <v>0.132418564469936</v>
+      </c>
+      <c r="D30">
+        <v>-0.1134876050905438</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0001394386147514996</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006177964614192825</v>
+      </c>
+      <c r="C31">
+        <v>0.04691929570308483</v>
+      </c>
+      <c r="D31">
+        <v>-0.03780637625672961</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0004624287324879536</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003532023501054856</v>
+      </c>
+      <c r="C32">
+        <v>0.04099538144058586</v>
+      </c>
+      <c r="D32">
+        <v>-0.01740476056855452</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.004562783413149823</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.00792751231511566</v>
+      </c>
+      <c r="C33">
+        <v>0.08119206796926468</v>
+      </c>
+      <c r="D33">
+        <v>-0.07666829059356649</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.005993841246958419</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.00378184920715502</v>
+      </c>
+      <c r="C34">
+        <v>0.05595293639603721</v>
+      </c>
+      <c r="D34">
+        <v>-0.04370762789814138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.004307062362371893</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.0050153109404209</v>
+      </c>
+      <c r="C35">
+        <v>0.03914080910210866</v>
+      </c>
+      <c r="D35">
+        <v>-0.01980192002560839</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.005527896413918931</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001320224402187703</v>
+      </c>
+      <c r="C36">
+        <v>0.02727974210930296</v>
+      </c>
+      <c r="D36">
+        <v>-0.01684855881423469</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.002168755541312075</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009183082263963683</v>
+      </c>
+      <c r="C38">
+        <v>0.0358764653296554</v>
+      </c>
+      <c r="D38">
+        <v>-0.03142730351980384</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01575493843511743</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001288166122555499</v>
+      </c>
+      <c r="C39">
+        <v>0.110601749267637</v>
+      </c>
+      <c r="D39">
+        <v>-0.08643072120854725</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.00847150543678054</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002614515477494357</v>
+      </c>
+      <c r="C40">
+        <v>0.08435815724621859</v>
+      </c>
+      <c r="D40">
+        <v>-0.03586389535163906</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>6.229072714520042e-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007533605174538374</v>
+      </c>
+      <c r="C41">
+        <v>0.04162126227470747</v>
+      </c>
+      <c r="D41">
+        <v>-0.0352103280321864</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.00212613495903767</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.002908057441648954</v>
+      </c>
+      <c r="C43">
+        <v>0.05210871450942124</v>
+      </c>
+      <c r="D43">
+        <v>-0.02792621772057821</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.0052892141650992</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003365156911376599</v>
+      </c>
+      <c r="C44">
+        <v>0.1048013328948724</v>
+      </c>
+      <c r="D44">
+        <v>-0.08334411282882079</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.002389324093076108</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002583081273915397</v>
+      </c>
+      <c r="C46">
+        <v>0.03393411138768898</v>
+      </c>
+      <c r="D46">
+        <v>-0.03440303181788361</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.002680338441239827</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002933375954228571</v>
+      </c>
+      <c r="C47">
+        <v>0.0411530985789383</v>
+      </c>
+      <c r="D47">
+        <v>-0.02984360029791891</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003669451356560229</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006563969865480279</v>
+      </c>
+      <c r="C48">
+        <v>0.03260358470199735</v>
+      </c>
+      <c r="D48">
+        <v>-0.02298767002775708</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.0164278001825248</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01392933711865053</v>
+      </c>
+      <c r="C49">
+        <v>0.1643089529851336</v>
+      </c>
+      <c r="D49">
+        <v>-0.04387893461618855</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.0003267468891814322</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003969716191782476</v>
+      </c>
+      <c r="C50">
+        <v>0.04309850599036612</v>
+      </c>
+      <c r="D50">
+        <v>-0.03883099259770185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.002618852313138826</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004124485831927822</v>
+      </c>
+      <c r="C51">
+        <v>0.02013682448247473</v>
+      </c>
+      <c r="D51">
+        <v>-0.03549900468194424</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0002032107977005045</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.01994483208418276</v>
+      </c>
+      <c r="C53">
+        <v>0.1623347628865093</v>
+      </c>
+      <c r="D53">
+        <v>-0.05981107054228077</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001352909907123288</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008627124905483563</v>
+      </c>
+      <c r="C54">
+        <v>0.05415755132943838</v>
+      </c>
+      <c r="D54">
+        <v>-0.04219876404072186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.006038040499612775</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009535097577283934</v>
+      </c>
+      <c r="C55">
+        <v>0.1033097523607075</v>
+      </c>
+      <c r="D55">
+        <v>-0.0579324294469097</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.001291371661486427</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01875831931889291</v>
+      </c>
+      <c r="C56">
+        <v>0.1668965444439158</v>
+      </c>
+      <c r="D56">
+        <v>-0.06133821966208873</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.009063296684570432</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01961140690784113</v>
+      </c>
+      <c r="C58">
+        <v>0.09975412339253614</v>
+      </c>
+      <c r="D58">
+        <v>-0.08389456671725078</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.009314334470771474</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009176164233902582</v>
+      </c>
+      <c r="C59">
+        <v>0.1787572834633792</v>
+      </c>
+      <c r="D59">
+        <v>0.2658402702643303</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.008955583238232102</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02272661054850034</v>
+      </c>
+      <c r="C60">
+        <v>0.2206663813292258</v>
+      </c>
+      <c r="D60">
+        <v>-0.0320458937411984</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01806118274926811</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002060450249134474</v>
+      </c>
+      <c r="C61">
+        <v>0.09299154813993925</v>
+      </c>
+      <c r="D61">
+        <v>-0.06667192040962043</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1888852163737129</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1449760415417156</v>
+      </c>
+      <c r="C62">
+        <v>0.06819447839532843</v>
+      </c>
+      <c r="D62">
+        <v>-0.0552538138709829</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.003027654811799857</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006481713814147535</v>
+      </c>
+      <c r="C63">
+        <v>0.06018209774826944</v>
+      </c>
+      <c r="D63">
+        <v>-0.02007431699701881</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.00635647007977755</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01560833672161504</v>
+      </c>
+      <c r="C64">
+        <v>0.0965827630593286</v>
+      </c>
+      <c r="D64">
+        <v>-0.07274756619518732</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.0004830956361900475</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01718049177527527</v>
+      </c>
+      <c r="C65">
+        <v>0.1098906160195775</v>
+      </c>
+      <c r="D65">
+        <v>-0.0390990152884944</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.01239140747644524</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.0120661525493186</v>
+      </c>
+      <c r="C66">
+        <v>0.146760409638892</v>
+      </c>
+      <c r="D66">
+        <v>-0.1258936569184047</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.001722225469601239</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01507148963516363</v>
+      </c>
+      <c r="C67">
+        <v>0.06409893738729644</v>
+      </c>
+      <c r="D67">
+        <v>-0.04311595175366161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.009172632805469169</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001777070303948196</v>
+      </c>
+      <c r="C68">
+        <v>0.1221772376874809</v>
+      </c>
+      <c r="D68">
+        <v>0.2663587786772574</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.003384481893122029</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.00520462697045391</v>
+      </c>
+      <c r="C69">
+        <v>0.04564825246072467</v>
+      </c>
+      <c r="D69">
+        <v>-0.04570697210191365</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.00127573062964544</v>
+      </c>
+      <c r="C70">
+        <v>0.001647236058195059</v>
+      </c>
+      <c r="D70">
+        <v>-0.00157491496883853</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.004415456574709227</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006496257053829865</v>
+      </c>
+      <c r="C71">
+        <v>0.1257240238001947</v>
+      </c>
+      <c r="D71">
+        <v>0.2797632716121195</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.008685435325008746</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01530103669205306</v>
+      </c>
+      <c r="C72">
+        <v>0.1469076568317287</v>
+      </c>
+      <c r="D72">
+        <v>-0.03845521539907916</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01444048673878517</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.0306740289143783</v>
+      </c>
+      <c r="C73">
+        <v>0.2824189674116688</v>
+      </c>
+      <c r="D73">
+        <v>-0.05296267162543113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.005894317481749113</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001843433657991081</v>
+      </c>
+      <c r="C74">
+        <v>0.1014483415549085</v>
+      </c>
+      <c r="D74">
+        <v>-0.04913613973200111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.006832871225963093</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01034528197547684</v>
+      </c>
+      <c r="C75">
+        <v>0.1304848634797186</v>
+      </c>
+      <c r="D75">
+        <v>-0.04845275899369686</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.01043497409895253</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02102844707003424</v>
+      </c>
+      <c r="C76">
+        <v>0.1408020053037987</v>
+      </c>
+      <c r="D76">
+        <v>-0.07767431604820177</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.008501316044154153</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02208737455914218</v>
+      </c>
+      <c r="C77">
+        <v>0.1173604728292575</v>
+      </c>
+      <c r="D77">
+        <v>-0.1207441375983158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.0006399936432533052</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01454099812563136</v>
+      </c>
+      <c r="C78">
+        <v>0.08935341796333839</v>
+      </c>
+      <c r="D78">
+        <v>-0.06878762232131462</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02623844459838865</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03640301480965668</v>
+      </c>
+      <c r="C79">
+        <v>0.1518904400704114</v>
+      </c>
+      <c r="D79">
+        <v>-0.04439529708683974</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.003258876130126712</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01077368021989618</v>
+      </c>
+      <c r="C80">
+        <v>0.04385138928423229</v>
+      </c>
+      <c r="D80">
+        <v>-0.02875351747182287</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0001063782914521457</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01438083567721678</v>
+      </c>
+      <c r="C81">
+        <v>0.118000839088819</v>
+      </c>
+      <c r="D81">
+        <v>-0.06664666889117302</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.0061208774895989</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01839468260063287</v>
+      </c>
+      <c r="C82">
+        <v>0.1375718805748245</v>
+      </c>
+      <c r="D82">
+        <v>-0.0533240976115028</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.008545686983243086</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009620520972920227</v>
+      </c>
+      <c r="C83">
+        <v>0.05186761809312347</v>
+      </c>
+      <c r="D83">
+        <v>-0.04855146080370077</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01353544636166691</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01236679750000565</v>
+      </c>
+      <c r="C84">
+        <v>0.03117211525004316</v>
+      </c>
+      <c r="D84">
+        <v>-0.003932259291028872</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01628216240972526</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02832143138764469</v>
+      </c>
+      <c r="C85">
+        <v>0.1271474447196951</v>
+      </c>
+      <c r="D85">
+        <v>-0.06184466647414485</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.003673446756077589</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.004766337327278557</v>
+      </c>
+      <c r="C86">
+        <v>0.04749718081435166</v>
+      </c>
+      <c r="D86">
+        <v>-0.02278426637574639</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.008212056888846448</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.009811319544191252</v>
+      </c>
+      <c r="C87">
+        <v>0.122421036677248</v>
+      </c>
+      <c r="D87">
+        <v>-0.07987290487507781</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01481765894541162</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.003078711947656277</v>
+      </c>
+      <c r="C88">
+        <v>0.07324509299621912</v>
+      </c>
+      <c r="D88">
+        <v>-0.01832813952281107</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01543350478820471</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001531143646735082</v>
+      </c>
+      <c r="C89">
+        <v>0.1761462189990937</v>
+      </c>
+      <c r="D89">
+        <v>0.3264836256065282</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.00239630996258958</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007932569813777752</v>
+      </c>
+      <c r="C90">
+        <v>0.1589243996399685</v>
+      </c>
+      <c r="D90">
+        <v>0.3162538270022564</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0006217822544761783</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.009795044168190525</v>
+      </c>
+      <c r="C91">
+        <v>0.1016275478769499</v>
+      </c>
+      <c r="D91">
+        <v>-0.02358280512098196</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.0184716369868333</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001358982388066314</v>
+      </c>
+      <c r="C92">
+        <v>0.1641403887902846</v>
+      </c>
+      <c r="D92">
+        <v>0.312845154719528</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.001898442597792127</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.00547207630117508</v>
+      </c>
+      <c r="C93">
+        <v>0.1405287980584912</v>
+      </c>
+      <c r="D93">
+        <v>0.3070274494617168</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.0009857292241655057</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02171406987677401</v>
+      </c>
+      <c r="C94">
+        <v>0.1553348867962908</v>
+      </c>
+      <c r="D94">
+        <v>-0.03876871977769148</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.007019679202635234</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01630965073578967</v>
+      </c>
+      <c r="C95">
+        <v>0.1197422810815731</v>
+      </c>
+      <c r="D95">
+        <v>-0.06604814621651947</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.004650012296886603</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03247632316674445</v>
+      </c>
+      <c r="C97">
+        <v>0.1652665333783289</v>
+      </c>
+      <c r="D97">
+        <v>-0.05279110325468497</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.01013017668712593</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03546236542300458</v>
+      </c>
+      <c r="C98">
+        <v>0.2564610284528558</v>
+      </c>
+      <c r="D98">
+        <v>-0.04790629624296164</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9792075112873907</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9826771940638642</v>
+      </c>
+      <c r="C99">
+        <v>-0.1063478620658106</v>
+      </c>
+      <c r="D99">
+        <v>0.03657139488070524</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001616909397012519</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003561138951445008</v>
+      </c>
+      <c r="C101">
+        <v>0.05055454027158675</v>
+      </c>
+      <c r="D101">
+        <v>-0.02208820595610905</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
